--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>MCL1</t>
   </si>
@@ -123,6 +123,283 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ARM!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Extraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>ARM!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ARM!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>481</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ARM!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Processing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>ARM!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ARM!$B$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ARM!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Classification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>ARM!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ARM!$B$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="49657728"/>
+        <c:axId val="51249152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="49657728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51249152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51249152"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49657728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -846,7 +1123,7 @@
         <v>1726.26</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:AD7" si="0">SUM(C3:C5)</f>
+        <f t="shared" ref="C7:AC7" si="0">SUM(C3:C5)</f>
         <v>563.86</v>
       </c>
       <c r="D7">
@@ -952,6 +1229,83 @@
       <c r="AC7">
         <f t="shared" si="0"/>
         <v>94.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>D3</f>
+        <v>531</v>
+      </c>
+      <c r="C15">
+        <f>K3</f>
+        <v>1439</v>
+      </c>
+      <c r="D15">
+        <f>R3</f>
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <f>Y3</f>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:B17" si="1">D4</f>
+        <v>1.4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:C17" si="2">K4</f>
+        <v>141.91999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="3">R4</f>
+        <v>5.57</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E17" si="4">Y4</f>
+        <v>17.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>7.72</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>6.02</v>
       </c>
     </row>
   </sheetData>
@@ -962,6 +1316,8 @@
     <mergeCell ref="W1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="ARM" sheetId="1" r:id="rId1"/>
     <sheet name="DSP" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
   <si>
     <t>MCL1</t>
   </si>
@@ -304,24 +305,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="49657728"/>
-        <c:axId val="51249152"/>
+        <c:axId val="51421568"/>
+        <c:axId val="51423872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49657728"/>
+        <c:axId val="51421568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51249152"/>
+        <c:crossAx val="51423872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51249152"/>
+        <c:axId val="51423872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -348,7 +349,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49657728"/>
+        <c:crossAx val="51421568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -361,9 +362,215 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ARM!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Extraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>ARM!$B$21:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+VFP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ARM!$B$22:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ARM!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Processing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>ARM!$B$21:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+VFP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ARM!$B$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>463.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.91999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ARM!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Classification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>ARM!$B$21:$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+VFP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ARM!$B$24:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="73713152"/>
+        <c:axId val="73716864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="73713152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73716864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73716864"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73713152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -371,16 +578,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -399,7 +606,590 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="ARM!D7">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Textfeld 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047749" y="647700"/>
+          <a:ext cx="1047751" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{5A26EB5A-DB36-4584-A5FB-F2981A7A29FC}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>534,85</a:t>
+          </a:fld>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="ARM!K7">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Textfeld 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2666999" y="438150"/>
+          <a:ext cx="1133476" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{387F9336-728D-4321-99CB-58F80198AD44}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1588,64</a:t>
+          </a:fld>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="ARM!R7">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Textfeld 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295774" y="1895475"/>
+          <a:ext cx="1114426" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{47D4A990-3123-4978-8A0C-44BAEBCB7620}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>70,57</a:t>
+          </a:fld>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="ARM!Y7">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Textfeld 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915024" y="866775"/>
+          <a:ext cx="1190626" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{AC400690-562A-4D73-8D46-95CC5E2B1A93}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>504,75</a:t>
+          </a:fld>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="ARM!J7">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Textfeld 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="638175"/>
+          <a:ext cx="1485900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{385BA048-D436-4839-8440-4BC0AF1F1EFF}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1589,09</a:t>
+          </a:fld>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="ARM!K7">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Textfeld 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13792200" y="628650"/>
+          <a:ext cx="1485900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{CC2CB982-1C96-4155-85BB-D56B166B1211}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1588,64</a:t>
+          </a:fld>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10592</cdr:x>
+      <cdr:y>0.04959</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.2836</cdr:x>
+      <cdr:y>0.11983</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="ARM!$I$7">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Textfeld 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="885825" y="228600"/>
+          <a:ext cx="1485900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:fld id="{16873AFB-2277-44C3-93E2-60BE85173214}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>4150</a:t>
+          </a:fld>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -882,7 +1672,7 @@
         <v>1439</v>
       </c>
       <c r="L3">
-        <v>2359</v>
+        <v>3239</v>
       </c>
       <c r="M3">
         <v>974</v>
@@ -1160,7 +1950,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>2851</v>
+        <v>3731</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
@@ -1287,7 +2077,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1307,6 +2097,109 @@
         <f t="shared" si="4"/>
         <v>6.02</v>
       </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" t="str">
+        <f>I2</f>
+        <v>ARM</v>
+      </c>
+      <c r="C21" t="str">
+        <f>J2</f>
+        <v>ARM+VFP</v>
+      </c>
+      <c r="D21" t="str">
+        <f>K2</f>
+        <v>ARM+NEON</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <f>I3</f>
+        <v>3658</v>
+      </c>
+      <c r="C22">
+        <f>J3</f>
+        <v>1439</v>
+      </c>
+      <c r="D22">
+        <f>K3</f>
+        <v>1439</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <f>I4</f>
+        <v>463.19</v>
+      </c>
+      <c r="C23">
+        <f>J4</f>
+        <v>142.36000000000001</v>
+      </c>
+      <c r="D23">
+        <f>K4</f>
+        <v>141.91999999999999</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <f>I5</f>
+        <v>28.81</v>
+      </c>
+      <c r="C24">
+        <f>J5</f>
+        <v>7.73</v>
+      </c>
+      <c r="D24">
+        <f>K5</f>
+        <v>7.72</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1317,7 +2210,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1720,4 +2612,20 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="21315" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="21315" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ARM" sheetId="1" r:id="rId1"/>
@@ -305,24 +305,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="51421568"/>
-        <c:axId val="51423872"/>
+        <c:axId val="61371520"/>
+        <c:axId val="61373056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51421568"/>
+        <c:axId val="61371520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51423872"/>
+        <c:crossAx val="61373056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51423872"/>
+        <c:axId val="61373056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -349,7 +349,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51421568"/>
+        <c:crossAx val="61371520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -360,9 +360,22 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -528,33 +541,51 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="73713152"/>
-        <c:axId val="73716864"/>
+        <c:axId val="64291968"/>
+        <c:axId val="64293504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73713152"/>
+        <c:axId val="64291968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73716864"/>
+        <c:crossAx val="64293504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73716864"/>
+        <c:axId val="64293504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeitmessung in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73713152"/>
+        <c:crossAx val="64291968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -565,9 +596,22 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -669,6 +713,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>534,85</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
@@ -740,6 +785,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>1588,64</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
@@ -811,6 +857,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>70,57</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
@@ -882,6 +929,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>504,75</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
@@ -1023,6 +1071,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>1589,09</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
@@ -1134,6 +1183,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>1588,64</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
@@ -1182,6 +1232,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>4150</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
@@ -1479,7 +1530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -2114,15 +2165,15 @@
     </row>
     <row r="21" spans="1:13">
       <c r="B21" t="str">
-        <f>I2</f>
+        <f t="shared" ref="B21:D24" si="5">I2</f>
         <v>ARM</v>
       </c>
       <c r="C21" t="str">
-        <f>J2</f>
+        <f t="shared" si="5"/>
         <v>ARM+VFP</v>
       </c>
       <c r="D21" t="str">
-        <f>K2</f>
+        <f t="shared" si="5"/>
         <v>ARM+NEON</v>
       </c>
       <c r="H21" s="1"/>
@@ -2137,15 +2188,15 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <f>I3</f>
+        <f t="shared" si="5"/>
         <v>3658</v>
       </c>
       <c r="C22">
-        <f>J3</f>
+        <f t="shared" si="5"/>
         <v>1439</v>
       </c>
       <c r="D22">
-        <f>K3</f>
+        <f t="shared" si="5"/>
         <v>1439</v>
       </c>
       <c r="H22" s="1"/>
@@ -2160,15 +2211,15 @@
         <v>11</v>
       </c>
       <c r="B23">
-        <f>I4</f>
+        <f t="shared" si="5"/>
         <v>463.19</v>
       </c>
       <c r="C23">
-        <f>J4</f>
+        <f t="shared" si="5"/>
         <v>142.36000000000001</v>
       </c>
       <c r="D23">
-        <f>K4</f>
+        <f t="shared" si="5"/>
         <v>141.91999999999999</v>
       </c>
       <c r="H23" s="1"/>
@@ -2183,15 +2234,15 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <f>I5</f>
+        <f t="shared" si="5"/>
         <v>28.81</v>
       </c>
       <c r="C24">
-        <f>J5</f>
+        <f t="shared" si="5"/>
         <v>7.73</v>
       </c>
       <c r="D24">
-        <f>K5</f>
+        <f t="shared" si="5"/>
         <v>7.72</v>
       </c>
       <c r="H24" s="1"/>
@@ -2618,8 +2669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -11,6 +11,9 @@
     <sheet name="DSP" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -178,16 +181,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>531</c:v>
+                  <c:v>531.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1439</c:v>
+                  <c:v>1439.6299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>60.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>481</c:v>
+                  <c:v>481.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -429,13 +432,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3658</c:v>
+                  <c:v>3658.0700000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1439</c:v>
+                  <c:v>1439.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1439</c:v>
+                  <c:v>1439.6299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,7 +717,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>534,85</a:t>
+            <a:t>535,46</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
@@ -786,7 +789,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1588,64</a:t>
+            <a:t>1589,27</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
@@ -858,7 +861,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>70,57</a:t>
+            <a:t>71,48</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
@@ -930,7 +933,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>504,75</a:t>
+            <a:t>504,89</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
@@ -1072,7 +1075,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1589,09</a:t>
+            <a:t>1589,45</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
@@ -1184,7 +1187,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1588,64</a:t>
+            <a:t>1589,27</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
@@ -1233,7 +1236,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>4150</a:t>
+            <a:t>4150,07</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
@@ -1241,6 +1244,189 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ARM MCL1"/>
+      <sheetName val="ARM MCL 2"/>
+      <sheetName val="ARM MCL3"/>
+      <sheetName val="ARM MCL4"/>
+      <sheetName val="DSP MCL1"/>
+      <sheetName val="DSP MCL2"/>
+      <sheetName val="DSP MCL3"/>
+      <sheetName val="DSP MCL4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="B9">
+            <v>1711.7399999999998</v>
+          </cell>
+          <cell r="C9">
+            <v>560.03</v>
+          </cell>
+          <cell r="D9">
+            <v>531.61</v>
+          </cell>
+          <cell r="E9">
+            <v>1488.6699999999998</v>
+          </cell>
+          <cell r="F9">
+            <v>327.90000000000003</v>
+          </cell>
+          <cell r="G9">
+            <v>136.72</v>
+          </cell>
+          <cell r="H9">
+            <v>119.85</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="9">
+          <cell r="B9">
+            <v>3658.0700000000006</v>
+          </cell>
+          <cell r="C9">
+            <v>1439.36</v>
+          </cell>
+          <cell r="D9">
+            <v>1439.6299999999999</v>
+          </cell>
+          <cell r="E9">
+            <v>3239.3200000000006</v>
+          </cell>
+          <cell r="F9">
+            <v>974.38999999999987</v>
+          </cell>
+          <cell r="G9">
+            <v>638.08999999999992</v>
+          </cell>
+          <cell r="H9">
+            <v>524.67000000000007</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="6">
+          <cell r="B6">
+            <v>176.05</v>
+          </cell>
+          <cell r="C6">
+            <v>85.449999999999989</v>
+          </cell>
+          <cell r="D6">
+            <v>60.91</v>
+          </cell>
+          <cell r="E6">
+            <v>176.05</v>
+          </cell>
+          <cell r="F6">
+            <v>85.449999999999989</v>
+          </cell>
+          <cell r="G6">
+            <v>60.91</v>
+          </cell>
+          <cell r="H6">
+            <v>59.199999999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="9">
+          <cell r="B9">
+            <v>1579.9100000000003</v>
+          </cell>
+          <cell r="C9">
+            <v>508.14</v>
+          </cell>
+          <cell r="D9">
+            <v>481.14</v>
+          </cell>
+          <cell r="E9">
+            <v>1356.3400000000001</v>
+          </cell>
+          <cell r="F9">
+            <v>281.18</v>
+          </cell>
+          <cell r="G9">
+            <v>95.03</v>
+          </cell>
+          <cell r="H9">
+            <v>70.7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="9">
+          <cell r="B9">
+            <v>579.86099999999999</v>
+          </cell>
+          <cell r="C9">
+            <v>125.30900000000001</v>
+          </cell>
+          <cell r="D9">
+            <v>61.626999999999995</v>
+          </cell>
+          <cell r="E9">
+            <v>61.623999999999995</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="9">
+          <cell r="B9">
+            <v>1357.91</v>
+          </cell>
+          <cell r="C9">
+            <v>334.774</v>
+          </cell>
+          <cell r="D9">
+            <v>197.13499999999999</v>
+          </cell>
+          <cell r="E9">
+            <v>197.13200000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="6">
+          <cell r="B6">
+            <v>412.72699999999998</v>
+          </cell>
+          <cell r="C6">
+            <v>30.100999999999999</v>
+          </cell>
+          <cell r="D6">
+            <v>30.100999999999999</v>
+          </cell>
+          <cell r="E6">
+            <v>7.7910000000000004</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="9">
+          <cell r="B9">
+            <v>542.91199999999992</v>
+          </cell>
+          <cell r="C9">
+            <v>115.55800000000001</v>
+          </cell>
+          <cell r="D9">
+            <v>51.806999999999995</v>
+          </cell>
+          <cell r="E9">
+            <v>51.802</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1531,7 +1717,7 @@
   <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1693,88 +1879,116 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1712</v>
+        <f>'[1]ARM MCL1'!B9</f>
+        <v>1711.7399999999998</v>
       </c>
       <c r="C3">
-        <v>560</v>
+        <f>'[1]ARM MCL1'!C9</f>
+        <v>560.03</v>
       </c>
       <c r="D3">
-        <v>531</v>
+        <f>'[1]ARM MCL1'!D9</f>
+        <v>531.61</v>
       </c>
       <c r="E3">
-        <v>1489</v>
+        <f>'[1]ARM MCL1'!E9</f>
+        <v>1488.6699999999998</v>
       </c>
       <c r="F3">
-        <v>328</v>
+        <f>'[1]ARM MCL1'!F9</f>
+        <v>327.90000000000003</v>
       </c>
       <c r="G3">
-        <v>145</v>
+        <f>'[1]ARM MCL1'!G9</f>
+        <v>136.72</v>
       </c>
       <c r="H3">
-        <v>120</v>
+        <f>'[1]ARM MCL1'!H9</f>
+        <v>119.85</v>
       </c>
       <c r="I3">
-        <v>3658</v>
+        <f>'[1]ARM MCL 2'!B9</f>
+        <v>3658.0700000000006</v>
       </c>
       <c r="J3">
-        <v>1439</v>
+        <f>'[1]ARM MCL 2'!C9</f>
+        <v>1439.36</v>
       </c>
       <c r="K3">
-        <v>1439</v>
+        <f>'[1]ARM MCL 2'!D9</f>
+        <v>1439.6299999999999</v>
       </c>
       <c r="L3">
-        <v>3239</v>
+        <f>'[1]ARM MCL 2'!E9</f>
+        <v>3239.3200000000006</v>
       </c>
       <c r="M3">
-        <v>974</v>
+        <f>'[1]ARM MCL 2'!F9</f>
+        <v>974.38999999999987</v>
       </c>
       <c r="N3">
-        <v>638</v>
+        <f>'[1]ARM MCL 2'!G9</f>
+        <v>638.08999999999992</v>
       </c>
       <c r="O3">
-        <v>525</v>
+        <f>'[1]ARM MCL 2'!H9</f>
+        <v>524.67000000000007</v>
       </c>
       <c r="P3">
-        <v>176</v>
+        <f>'[1]ARM MCL3'!B6</f>
+        <v>176.05</v>
       </c>
       <c r="Q3">
-        <v>85</v>
+        <f>'[1]ARM MCL3'!C6</f>
+        <v>85.449999999999989</v>
       </c>
       <c r="R3">
-        <v>60</v>
+        <f>'[1]ARM MCL3'!D6</f>
+        <v>60.91</v>
       </c>
       <c r="S3">
-        <v>176</v>
+        <f>'[1]ARM MCL3'!E6</f>
+        <v>176.05</v>
       </c>
       <c r="T3">
-        <v>85</v>
+        <f>'[1]ARM MCL3'!F6</f>
+        <v>85.449999999999989</v>
       </c>
       <c r="U3">
-        <v>60</v>
+        <f>'[1]ARM MCL3'!G6</f>
+        <v>60.91</v>
       </c>
       <c r="V3">
-        <v>59</v>
+        <f>'[1]ARM MCL3'!H6</f>
+        <v>59.199999999999996</v>
       </c>
       <c r="W3">
-        <v>1580</v>
+        <f>'[1]ARM MCL4'!B9</f>
+        <v>1579.9100000000003</v>
       </c>
       <c r="X3">
-        <v>508</v>
+        <f>'[1]ARM MCL4'!C9</f>
+        <v>508.14</v>
       </c>
       <c r="Y3">
-        <v>481</v>
+        <f>'[1]ARM MCL4'!D9</f>
+        <v>481.14</v>
       </c>
       <c r="Z3">
-        <v>1356</v>
+        <f>'[1]ARM MCL4'!E9</f>
+        <v>1356.3400000000001</v>
       </c>
       <c r="AA3">
-        <v>281</v>
+        <f>'[1]ARM MCL4'!F9</f>
+        <v>281.18</v>
       </c>
       <c r="AB3">
-        <v>95</v>
+        <f>'[1]ARM MCL4'!G9</f>
+        <v>95.03</v>
       </c>
       <c r="AC3">
-        <v>71</v>
+        <f>'[1]ARM MCL4'!H9</f>
+        <v>70.7</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1961,115 +2175,115 @@
       </c>
       <c r="B7">
         <f>SUM(B3:B5)</f>
-        <v>1726.26</v>
+        <v>1725.9999999999998</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:AC7" si="0">SUM(C3:C5)</f>
-        <v>563.86</v>
+        <v>563.89</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>534.85</v>
+        <v>535.46</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1503.26</v>
+        <v>1502.9299999999998</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>331.85999999999996</v>
+        <v>331.76</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>148.85</v>
+        <v>140.57</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>123.85000000000001</v>
+        <v>123.7</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>4150</v>
+        <v>4150.0700000000006</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>1589.0900000000001</v>
+        <v>1589.4499999999998</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1588.64</v>
+        <v>1589.27</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>3731</v>
+        <v>3731.3200000000006</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>1124.0900000000001</v>
+        <v>1124.48</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>787.64</v>
+        <v>787.7299999999999</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>674.64</v>
+        <v>674.31000000000006</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>210.6</v>
+        <v>210.65</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>95.61999999999999</v>
+        <v>96.069999999999979</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>70.569999999999993</v>
+        <v>71.47999999999999</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>210.6</v>
+        <v>210.65</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>95.61999999999999</v>
+        <v>96.069999999999979</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>70.569999999999993</v>
+        <v>71.47999999999999</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>69.569999999999993</v>
+        <v>69.77</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>1659.91</v>
+        <v>1659.8200000000004</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>531.82999999999993</v>
+        <v>531.96999999999991</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>504.75</v>
+        <v>504.89</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>1435.91</v>
+        <v>1436.2500000000002</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>304.83</v>
+        <v>305.01</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>118.75</v>
+        <v>118.78</v>
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>94.75</v>
+        <v>94.45</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2092,19 +2306,19 @@
       </c>
       <c r="B15">
         <f>D3</f>
-        <v>531</v>
+        <v>531.61</v>
       </c>
       <c r="C15">
         <f>K3</f>
-        <v>1439</v>
+        <v>1439.6299999999999</v>
       </c>
       <c r="D15">
         <f>R3</f>
-        <v>60</v>
+        <v>60.91</v>
       </c>
       <c r="E15">
         <f>Y3</f>
-        <v>481</v>
+        <v>481.14</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2189,15 +2403,15 @@
       </c>
       <c r="B22">
         <f t="shared" si="5"/>
-        <v>3658</v>
+        <v>3658.0700000000006</v>
       </c>
       <c r="C22">
         <f t="shared" si="5"/>
-        <v>1439</v>
+        <v>1439.36</v>
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
-        <v>1439</v>
+        <v>1439.6299999999999</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2269,25 +2483,25 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
@@ -2378,52 +2592,68 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>580</v>
+        <f>'[1]DSP MCL1'!B9</f>
+        <v>579.86099999999999</v>
       </c>
       <c r="C3">
-        <v>157</v>
+        <f>'[1]DSP MCL1'!C9</f>
+        <v>125.30900000000001</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <f>'[1]DSP MCL1'!D9</f>
+        <v>61.626999999999995</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <f>'[1]DSP MCL1'!E9</f>
+        <v>61.623999999999995</v>
       </c>
       <c r="F3">
-        <v>1358</v>
+        <f>'[1]DSP MCL2'!B9</f>
+        <v>1357.91</v>
       </c>
       <c r="G3">
-        <v>397</v>
+        <f>'[1]DSP MCL2'!C9</f>
+        <v>334.774</v>
       </c>
       <c r="H3">
-        <v>198</v>
+        <f>'[1]DSP MCL2'!D9</f>
+        <v>197.13499999999999</v>
       </c>
       <c r="I3">
-        <v>198</v>
+        <f>'[1]DSP MCL2'!E9</f>
+        <v>197.13200000000001</v>
       </c>
       <c r="J3">
-        <v>413</v>
+        <f>'[1]DSP MCL3'!B6</f>
+        <v>412.72699999999998</v>
       </c>
       <c r="K3">
-        <v>30</v>
+        <f>'[1]DSP MCL3'!C6</f>
+        <v>30.100999999999999</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <f>'[1]DSP MCL3'!D6</f>
+        <v>30.100999999999999</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <f>'[1]DSP MCL3'!E6</f>
+        <v>7.7910000000000004</v>
       </c>
       <c r="N3">
-        <v>543</v>
+        <f>'[1]DSP MCL4'!B9</f>
+        <v>542.91199999999992</v>
       </c>
       <c r="O3">
-        <v>116</v>
+        <f>'[1]DSP MCL4'!C9</f>
+        <v>115.55800000000001</v>
       </c>
       <c r="P3">
-        <v>52</v>
+        <f>'[1]DSP MCL4'!D9</f>
+        <v>51.806999999999995</v>
       </c>
       <c r="Q3">
-        <v>52</v>
+        <f>'[1]DSP MCL4'!E9</f>
+        <v>51.802</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2591,67 +2821,67 @@
       </c>
       <c r="B8">
         <f>SUM(B3:B6)</f>
-        <v>590.85</v>
+        <v>590.71100000000001</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:Q8" si="0">SUM(C3:C6)</f>
-        <v>167.85</v>
+        <v>136.15900000000002</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>70.849999999999994</v>
+        <v>72.47699999999999</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>70.849999999999994</v>
+        <v>72.47399999999999</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>1368.8500000000001</v>
+        <v>1368.7600000000002</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>407.84999999999997</v>
+        <v>345.62399999999997</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>208.85</v>
+        <v>207.98499999999999</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>208.85</v>
+        <v>207.982</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>423.84999999999997</v>
+        <v>423.57699999999994</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>40.85</v>
+        <v>40.951000000000001</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>40.85</v>
+        <v>40.951000000000001</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>18.850000000000001</v>
+        <v>18.641000000000002</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>553.85</v>
+        <v>553.76199999999994</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>126.85000000000001</v>
+        <v>126.40800000000002</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>62.85</v>
+        <v>62.656999999999996</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>62.85</v>
+        <v>62.652000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +2900,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -187,7 +187,7 @@
                   <c:v>1439.6299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.91</c:v>
+                  <c:v>58.510000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>481.14</c:v>
@@ -308,24 +308,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="61371520"/>
-        <c:axId val="61373056"/>
+        <c:axId val="80590720"/>
+        <c:axId val="80592256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61371520"/>
+        <c:axId val="80590720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61373056"/>
+        <c:crossAx val="80592256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61373056"/>
+        <c:axId val="80592256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -352,7 +352,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61371520"/>
+        <c:crossAx val="80590720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -378,7 +378,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -544,24 +544,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64291968"/>
-        <c:axId val="64293504"/>
+        <c:axId val="75328128"/>
+        <c:axId val="75338112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64291968"/>
+        <c:axId val="75328128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64293504"/>
+        <c:crossAx val="75338112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64293504"/>
+        <c:axId val="75338112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -588,7 +588,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64291968"/>
+        <c:crossAx val="75328128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -614,7 +614,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -861,7 +861,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>71,48</a:t>
+            <a:t>69,08</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
@@ -1250,6 +1250,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Feature Überblick"/>
       <sheetName val="ARM MCL1"/>
       <sheetName val="ARM MCL 2"/>
       <sheetName val="ARM MCL3"/>
@@ -1260,7 +1261,8 @@
       <sheetName val="DSP MCL4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
         <row r="9">
           <cell r="B9">
             <v>1711.7399999999998</v>
@@ -1281,11 +1283,11 @@
             <v>136.72</v>
           </cell>
           <cell r="H9">
-            <v>119.85</v>
+            <v>111.66999999999999</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
+      <sheetData sheetId="2">
         <row r="9">
           <cell r="B9">
             <v>3658.0700000000006</v>
@@ -1310,105 +1312,105 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
+      <sheetData sheetId="3">
         <row r="6">
           <cell r="B6">
-            <v>176.05</v>
+            <v>143.95999999999998</v>
           </cell>
           <cell r="C6">
-            <v>85.449999999999989</v>
+            <v>75.279999999999987</v>
           </cell>
           <cell r="D6">
-            <v>60.91</v>
+            <v>58.510000000000005</v>
           </cell>
           <cell r="E6">
-            <v>176.05</v>
+            <v>143.95999999999998</v>
           </cell>
           <cell r="F6">
-            <v>85.449999999999989</v>
+            <v>75.279999999999987</v>
           </cell>
           <cell r="G6">
-            <v>60.91</v>
+            <v>58.510000000000005</v>
           </cell>
           <cell r="H6">
-            <v>59.199999999999996</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="9">
-          <cell r="B9">
-            <v>1579.9100000000003</v>
-          </cell>
-          <cell r="C9">
-            <v>508.14</v>
-          </cell>
-          <cell r="D9">
-            <v>481.14</v>
-          </cell>
-          <cell r="E9">
-            <v>1356.3400000000001</v>
-          </cell>
-          <cell r="F9">
-            <v>281.18</v>
-          </cell>
-          <cell r="G9">
-            <v>95.03</v>
-          </cell>
-          <cell r="H9">
-            <v>70.7</v>
+            <v>58.510000000000005</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="9">
           <cell r="B9">
-            <v>579.86099999999999</v>
+            <v>1579.9100000000003</v>
           </cell>
           <cell r="C9">
-            <v>125.30900000000001</v>
+            <v>508.14</v>
           </cell>
           <cell r="D9">
-            <v>61.626999999999995</v>
+            <v>481.14</v>
           </cell>
           <cell r="E9">
-            <v>61.623999999999995</v>
+            <v>1356.3400000000001</v>
+          </cell>
+          <cell r="F9">
+            <v>281.18</v>
+          </cell>
+          <cell r="G9">
+            <v>95.03</v>
+          </cell>
+          <cell r="H9">
+            <v>70.7</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="9">
           <cell r="B9">
-            <v>1357.91</v>
+            <v>579.86099999999999</v>
           </cell>
           <cell r="C9">
-            <v>334.774</v>
+            <v>125.30900000000001</v>
           </cell>
           <cell r="D9">
-            <v>197.13499999999999</v>
+            <v>61.626999999999995</v>
           </cell>
           <cell r="E9">
-            <v>197.13200000000001</v>
+            <v>61.623999999999995</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
-        <row r="6">
-          <cell r="B6">
-            <v>412.72699999999998</v>
-          </cell>
-          <cell r="C6">
-            <v>30.100999999999999</v>
-          </cell>
-          <cell r="D6">
-            <v>30.100999999999999</v>
-          </cell>
-          <cell r="E6">
-            <v>7.7910000000000004</v>
+        <row r="9">
+          <cell r="B9">
+            <v>1357.91</v>
+          </cell>
+          <cell r="C9">
+            <v>334.774</v>
+          </cell>
+          <cell r="D9">
+            <v>207.917</v>
+          </cell>
+          <cell r="E9">
+            <v>207.91300000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
+        <row r="6">
+          <cell r="B6">
+            <v>32.57</v>
+          </cell>
+          <cell r="C6">
+            <v>30.100999999999999</v>
+          </cell>
+          <cell r="D6">
+            <v>30.100999999999999</v>
+          </cell>
+          <cell r="E6">
+            <v>7.7910000000000004</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
         <row r="9">
           <cell r="B9">
             <v>542.91199999999992</v>
@@ -1904,7 +1906,7 @@
       </c>
       <c r="H3">
         <f>'[1]ARM MCL1'!H9</f>
-        <v>119.85</v>
+        <v>111.66999999999999</v>
       </c>
       <c r="I3">
         <f>'[1]ARM MCL 2'!B9</f>
@@ -1936,31 +1938,31 @@
       </c>
       <c r="P3">
         <f>'[1]ARM MCL3'!B6</f>
-        <v>176.05</v>
+        <v>143.95999999999998</v>
       </c>
       <c r="Q3">
         <f>'[1]ARM MCL3'!C6</f>
-        <v>85.449999999999989</v>
+        <v>75.279999999999987</v>
       </c>
       <c r="R3">
         <f>'[1]ARM MCL3'!D6</f>
-        <v>60.91</v>
+        <v>58.510000000000005</v>
       </c>
       <c r="S3">
         <f>'[1]ARM MCL3'!E6</f>
-        <v>176.05</v>
+        <v>143.95999999999998</v>
       </c>
       <c r="T3">
         <f>'[1]ARM MCL3'!F6</f>
-        <v>85.449999999999989</v>
+        <v>75.279999999999987</v>
       </c>
       <c r="U3">
         <f>'[1]ARM MCL3'!G6</f>
-        <v>60.91</v>
+        <v>58.510000000000005</v>
       </c>
       <c r="V3">
         <f>'[1]ARM MCL3'!H6</f>
-        <v>59.199999999999996</v>
+        <v>58.510000000000005</v>
       </c>
       <c r="W3">
         <f>'[1]ARM MCL4'!B9</f>
@@ -2199,7 +2201,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>123.7</v>
+        <v>115.52</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -2231,31 +2233,31 @@
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>210.65</v>
+        <v>178.55999999999997</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>96.069999999999979</v>
+        <v>85.899999999999977</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>71.47999999999999</v>
+        <v>69.080000000000013</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>210.65</v>
+        <v>178.55999999999997</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>96.069999999999979</v>
+        <v>85.899999999999977</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>71.47999999999999</v>
+        <v>69.080000000000013</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>69.77</v>
+        <v>69.080000000000013</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
@@ -2314,7 +2316,7 @@
       </c>
       <c r="D15">
         <f>R3</f>
-        <v>60.91</v>
+        <v>58.510000000000005</v>
       </c>
       <c r="E15">
         <f>Y3</f>
@@ -2617,15 +2619,15 @@
       </c>
       <c r="H3">
         <f>'[1]DSP MCL2'!D9</f>
-        <v>197.13499999999999</v>
+        <v>207.917</v>
       </c>
       <c r="I3">
         <f>'[1]DSP MCL2'!E9</f>
-        <v>197.13200000000001</v>
+        <v>207.91300000000001</v>
       </c>
       <c r="J3">
         <f>'[1]DSP MCL3'!B6</f>
-        <v>412.72699999999998</v>
+        <v>32.57</v>
       </c>
       <c r="K3">
         <f>'[1]DSP MCL3'!C6</f>
@@ -2845,15 +2847,15 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>207.98499999999999</v>
+        <v>218.767</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>207.982</v>
+        <v>218.76300000000001</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>423.57699999999994</v>
+        <v>43.42</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -308,24 +308,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80590720"/>
-        <c:axId val="80592256"/>
+        <c:axId val="76265344"/>
+        <c:axId val="76266880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80590720"/>
+        <c:axId val="76265344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80592256"/>
+        <c:crossAx val="76266880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80592256"/>
+        <c:axId val="76266880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -352,7 +352,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80590720"/>
+        <c:crossAx val="76265344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -378,7 +378,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -544,24 +544,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75328128"/>
-        <c:axId val="75338112"/>
+        <c:axId val="44726912"/>
+        <c:axId val="44732800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75328128"/>
+        <c:axId val="44726912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75338112"/>
+        <c:crossAx val="44732800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75338112"/>
+        <c:axId val="44732800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -588,7 +588,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75328128"/>
+        <c:crossAx val="44726912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -614,7 +614,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -308,24 +308,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76265344"/>
-        <c:axId val="76266880"/>
+        <c:axId val="76174080"/>
+        <c:axId val="76175616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76265344"/>
+        <c:axId val="76174080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76266880"/>
+        <c:crossAx val="76175616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76266880"/>
+        <c:axId val="76175616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -352,7 +352,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76265344"/>
+        <c:crossAx val="76174080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -378,7 +378,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -544,24 +544,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="44726912"/>
-        <c:axId val="44732800"/>
+        <c:axId val="76133120"/>
+        <c:axId val="76134656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44726912"/>
+        <c:axId val="76133120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44732800"/>
+        <c:crossAx val="76134656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44732800"/>
+        <c:axId val="76134656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -588,7 +588,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44726912"/>
+        <c:crossAx val="76133120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1261,7 +1261,7 @@
       <sheetName val="DSP MCL4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="9">
           <cell r="B9">
@@ -1308,7 +1308,7 @@
             <v>638.08999999999992</v>
           </cell>
           <cell r="H9">
-            <v>524.67000000000007</v>
+            <v>524.13</v>
           </cell>
         </row>
       </sheetData>
@@ -1358,7 +1358,7 @@
             <v>95.03</v>
           </cell>
           <cell r="H9">
-            <v>70.7</v>
+            <v>70.08</v>
           </cell>
         </row>
       </sheetData>
@@ -1718,7 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="O3">
         <f>'[1]ARM MCL 2'!H9</f>
-        <v>524.67000000000007</v>
+        <v>524.13</v>
       </c>
       <c r="P3">
         <f>'[1]ARM MCL3'!B6</f>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="AC3">
         <f>'[1]ARM MCL4'!H9</f>
-        <v>70.7</v>
+        <v>70.08</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>674.31000000000006</v>
+        <v>673.77</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>94.45</v>
+        <v>93.83</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2485,7 +2485,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2663,52 +2663,68 @@
         <v>11</v>
       </c>
       <c r="B4">
+        <f>ARM!$H$4</f>
         <v>1.4</v>
       </c>
       <c r="C4">
+        <f>ARM!$H$4</f>
         <v>1.4</v>
       </c>
       <c r="D4">
+        <f>ARM!$H$4</f>
         <v>1.4</v>
       </c>
       <c r="E4">
+        <f>ARM!$H$4</f>
         <v>1.4</v>
       </c>
       <c r="F4">
-        <v>1.4</v>
+        <f>ARM!$O$4</f>
+        <v>141.91999999999999</v>
       </c>
       <c r="G4">
-        <v>1.4</v>
+        <f>ARM!$O$4</f>
+        <v>141.91999999999999</v>
       </c>
       <c r="H4">
-        <v>1.4</v>
+        <f>ARM!$O$4</f>
+        <v>141.91999999999999</v>
       </c>
       <c r="I4">
-        <v>1.4</v>
+        <f>ARM!$O$4</f>
+        <v>141.91999999999999</v>
       </c>
       <c r="J4">
-        <v>1.4</v>
+        <f>ARM!$U$4</f>
+        <v>5.57</v>
       </c>
       <c r="K4">
-        <v>1.4</v>
+        <f>ARM!$U$4</f>
+        <v>5.57</v>
       </c>
       <c r="L4">
-        <v>1.4</v>
+        <f>ARM!$U$4</f>
+        <v>5.57</v>
       </c>
       <c r="M4">
-        <v>1.4</v>
+        <f>ARM!$U$4</f>
+        <v>5.57</v>
       </c>
       <c r="N4">
-        <v>1.4</v>
+        <f>ARM!$AC$4</f>
+        <v>17.73</v>
       </c>
       <c r="O4">
-        <v>1.4</v>
+        <f>ARM!$AC$4</f>
+        <v>17.73</v>
       </c>
       <c r="P4">
-        <v>1.4</v>
+        <f>ARM!$AC$4</f>
+        <v>17.73</v>
       </c>
       <c r="Q4">
-        <v>1.4</v>
+        <f>ARM!$AC$4</f>
+        <v>17.73</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2716,52 +2732,68 @@
         <v>12</v>
       </c>
       <c r="B5">
+        <f>ARM!$H$5</f>
         <v>2.4500000000000002</v>
       </c>
       <c r="C5">
+        <f>ARM!$H$5</f>
         <v>2.4500000000000002</v>
       </c>
       <c r="D5">
+        <f>ARM!$H$5</f>
         <v>2.4500000000000002</v>
       </c>
       <c r="E5">
+        <f>ARM!$H$5</f>
         <v>2.4500000000000002</v>
       </c>
       <c r="F5">
-        <v>2.4500000000000002</v>
+        <f>ARM!$O$5</f>
+        <v>7.72</v>
       </c>
       <c r="G5">
-        <v>2.4500000000000002</v>
+        <f>ARM!$O$5</f>
+        <v>7.72</v>
       </c>
       <c r="H5">
-        <v>2.4500000000000002</v>
+        <f>ARM!$O$5</f>
+        <v>7.72</v>
       </c>
       <c r="I5">
-        <v>2.4500000000000002</v>
+        <f>ARM!$O$5</f>
+        <v>7.72</v>
       </c>
       <c r="J5">
-        <v>2.4500000000000002</v>
+        <f>ARM!$U$5</f>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>2.4500000000000002</v>
+        <f>ARM!$U$5</f>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>2.4500000000000002</v>
+        <f>ARM!$U$5</f>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>2.4500000000000002</v>
+        <f>ARM!$U$5</f>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>2.4500000000000002</v>
+        <f>ARM!$AC$5</f>
+        <v>6.02</v>
       </c>
       <c r="O5">
-        <v>2.4500000000000002</v>
+        <f>ARM!$AC$5</f>
+        <v>6.02</v>
       </c>
       <c r="P5">
-        <v>2.4500000000000002</v>
+        <f>ARM!$AC$5</f>
+        <v>6.02</v>
       </c>
       <c r="Q5">
-        <v>2.4500000000000002</v>
+        <f>ARM!$AC$5</f>
+        <v>6.02</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2769,52 +2801,52 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2823,67 +2855,67 @@
       </c>
       <c r="B8">
         <f>SUM(B3:B6)</f>
-        <v>590.71100000000001</v>
+        <v>587.71100000000001</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:Q8" si="0">SUM(C3:C6)</f>
-        <v>136.15900000000002</v>
+        <v>133.15900000000002</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>72.47699999999999</v>
+        <v>69.47699999999999</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>72.47399999999999</v>
+        <v>69.47399999999999</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>1368.7600000000002</v>
+        <v>1511.5500000000002</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>345.62399999999997</v>
+        <v>488.41399999999999</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>218.767</v>
+        <v>361.55700000000002</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>218.76300000000001</v>
+        <v>361.553</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>43.42</v>
+        <v>47.14</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>40.951000000000001</v>
+        <v>44.670999999999999</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>40.951000000000001</v>
+        <v>44.670999999999999</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>18.641000000000002</v>
+        <v>22.361000000000001</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>553.76199999999994</v>
+        <v>570.66199999999992</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>126.40800000000002</v>
+        <v>143.30800000000002</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>62.656999999999996</v>
+        <v>79.556999999999988</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>62.652000000000001</v>
+        <v>79.551999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="21315" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="21315" windowHeight="9525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARM" sheetId="1" r:id="rId1"/>
@@ -308,24 +308,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76174080"/>
-        <c:axId val="76175616"/>
+        <c:axId val="45360640"/>
+        <c:axId val="45362176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76174080"/>
+        <c:axId val="45360640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76175616"/>
+        <c:crossAx val="45362176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76175616"/>
+        <c:axId val="45362176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -348,18 +348,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76174080"/>
+        <c:crossAx val="45360640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -378,7 +376,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -544,24 +542,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76133120"/>
-        <c:axId val="76134656"/>
+        <c:axId val="45332352"/>
+        <c:axId val="45333888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76133120"/>
+        <c:axId val="45332352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76134656"/>
+        <c:crossAx val="45333888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76134656"/>
+        <c:axId val="45333888"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -584,18 +582,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76133120"/>
+        <c:crossAx val="45332352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -618,6 +614,292 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ARM!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>ARM!$B$26:$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+VFP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ARM!$B$27:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1725.9999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>563.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>535.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ARM!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>ARM!$B$26:$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+VFP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ARM!$B$28:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4150.0700000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1589.4499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1589.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ARM!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>ARM!$B$26:$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+VFP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ARM!$B$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>178.55999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.899999999999977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.080000000000013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ARM!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>ARM!$B$26:$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+VFP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ARM!$B$30:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1659.8200000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>531.96999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>504.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="45521536"/>
+        <c:axId val="45527424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45521536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45527424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45527424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45521536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1195,6 +1477,36 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagramm 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1261,7 +1573,7 @@
       <sheetName val="DSP MCL4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="9">
           <cell r="B9">
@@ -1716,10 +2028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2288,6 +2600,20 @@
         <v>93.83</v>
       </c>
     </row>
+    <row r="9" spans="1:29">
+      <c r="B9">
+        <f>B7/G7</f>
+        <v>12.278580066870598</v>
+      </c>
+      <c r="C9">
+        <f>I7/N7</f>
+        <v>5.2683914539245693</v>
+      </c>
+      <c r="D9">
+        <f>W7/AB7</f>
+        <v>13.973901330190271</v>
+      </c>
+    </row>
     <row r="14" spans="1:29">
       <c r="B14" t="s">
         <v>0</v>
@@ -2468,6 +2794,124 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
+    <row r="26" spans="1:13">
+      <c r="B26" t="str">
+        <f>B2</f>
+        <v>ARM</v>
+      </c>
+      <c r="C26" t="str">
+        <f>C2</f>
+        <v>ARM+VFP</v>
+      </c>
+      <c r="D26" t="str">
+        <f>D2</f>
+        <v>ARM+NEON</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="str">
+        <f>B1</f>
+        <v>MCL1</v>
+      </c>
+      <c r="B27">
+        <f>B7</f>
+        <v>1725.9999999999998</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:D27" si="6">C7</f>
+        <v>563.89</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
+        <v>535.46</v>
+      </c>
+      <c r="E27">
+        <f>B27/C27</f>
+        <v>3.0608806682154319</v>
+      </c>
+      <c r="F27">
+        <f>B27/D27</f>
+        <v>3.2233967056362749</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="str">
+        <f>I1</f>
+        <v>MCL2</v>
+      </c>
+      <c r="B28">
+        <f>I7</f>
+        <v>4150.0700000000006</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:D28" si="7">J7</f>
+        <v>1589.4499999999998</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="7"/>
+        <v>1589.27</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E30" si="8">B28/C28</f>
+        <v>2.6110100978325841</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F30" si="9">B28/D28</f>
+        <v>2.6113058196530488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="str">
+        <f>P1</f>
+        <v>MCL3</v>
+      </c>
+      <c r="B29">
+        <f>P7</f>
+        <v>178.55999999999997</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:D29" si="10">Q7</f>
+        <v>85.899999999999977</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="10"/>
+        <v>69.080000000000013</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>2.0786961583236323</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="9"/>
+        <v>2.5848291835552972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="str">
+        <f>W1</f>
+        <v>MCL4</v>
+      </c>
+      <c r="B30">
+        <f>W7</f>
+        <v>1659.8200000000004</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:D30" si="11">X7</f>
+        <v>531.96999999999991</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="11"/>
+        <v>504.89</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="8"/>
+        <v>3.1201383536665612</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="9"/>
+        <v>3.2874883638020171</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:H1"/>
@@ -2484,7 +2928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -2933,8 +3377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
   <si>
     <t>MCL1</t>
   </si>
@@ -75,17 +75,24 @@
     <t>Communication</t>
   </si>
   <si>
-    <t>Libav NEON + NEON Opt</t>
+    <t>Gesamt</t>
   </si>
   <si>
-    <t>Gesamt</t>
+    <t>Libav NEON + Handopt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,17 +118,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -308,24 +319,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="45360640"/>
-        <c:axId val="45362176"/>
+        <c:axId val="50050944"/>
+        <c:axId val="50052480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45360640"/>
+        <c:axId val="50050944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45362176"/>
+        <c:crossAx val="50052480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45362176"/>
+        <c:axId val="50052480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -348,16 +359,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45360640"/>
+        <c:crossAx val="50050944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -542,24 +555,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="45332352"/>
-        <c:axId val="45333888"/>
+        <c:axId val="50272128"/>
+        <c:axId val="50273664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45332352"/>
+        <c:axId val="50272128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45333888"/>
+        <c:crossAx val="50273664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45333888"/>
+        <c:axId val="50273664"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -582,16 +595,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45332352"/>
+        <c:crossAx val="50272128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -828,25 +843,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="45521536"/>
-        <c:axId val="45527424"/>
+        <c:axId val="50648192"/>
+        <c:axId val="50649728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45521536"/>
+        <c:axId val="50648192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45527424"/>
+        <c:crossAx val="50649728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45527424"/>
+        <c:axId val="50649728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,17 +883,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45521536"/>
+        <c:crossAx val="50648192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -897,9 +914,207 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ARM!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>ARM!$A$33:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ARM!$B$33:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1725.9999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4150.0700000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178.55999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1659.8200000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ARM!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>ARM!$A$33:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ARM!$C$33:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>115.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>673.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.080000000000013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50674688"/>
+        <c:axId val="50688768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50674688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50688768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50688768"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50674688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1507,6 +1722,540 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Gruppieren 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9524" y="7515225"/>
+          <a:ext cx="7915275" cy="5048250"/>
+          <a:chOff x="9524" y="7515225"/>
+          <a:chExt cx="7915275" cy="5048250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="11" name="Diagramm 10"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="9524" y="7515225"/>
+          <a:ext cx="7915275" cy="5048250"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="ARM!D34">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Pfeil nach unten 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3457575" y="8396288"/>
+            <a:ext cx="457200" cy="823912"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vert="vert270" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:fld id="{6E9B70FE-90D8-4BE0-B500-DC21329F1667}" type="TxLink">
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:pPr/>
+              <a:t>84%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="ARM!D35">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Pfeil nach unten 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5191126" y="9834563"/>
+            <a:ext cx="457200" cy="428624"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vert="vert270" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:fld id="{FAF82557-4CF8-4133-9DCC-99A63B2C25C8}" type="TxLink">
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike">
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:pPr/>
+              <a:t>61%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="ARM!D36">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Pfeil nach unten 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6943726" y="8815388"/>
+            <a:ext cx="457200" cy="1309687"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vert="vert270" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:fld id="{794F0C71-6FCD-457F-A534-92387AA5F3AA}" type="TxLink">
+              <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0">
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:pPr/>
+              <a:t>94%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="de-DE" sz="900" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1550,6 +2299,153 @@
             <a:pPr algn="ctr"/>
             <a:t>4150,07</a:t>
           </a:fld>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22022</cdr:x>
+      <cdr:y>0.24906</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.27918</cdr:x>
+      <cdr:y>0.50189</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Textfeld 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1743076" y="1257300"/>
+          <a:ext cx="466725" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.21661</cdr:x>
+      <cdr:y>0.24717</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.27437</cdr:x>
+      <cdr:y>0.49434</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="ARM!$D$33">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="Pfeil nach unten 9"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1714501" y="1247775"/>
+          <a:ext cx="457199" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="vert270" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{6672B96E-C7C0-4CF1-90BA-B9D4F6C58D48}" type="TxLink">
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:pPr/>
+            <a:t>93%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="de-DE" sz="1000">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2515</cdr:x>
+      <cdr:y>0.30189</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29122</cdr:x>
+      <cdr:y>0.35849</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="14" name="Textfeld 13"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1990725" y="1524000"/>
+          <a:ext cx="314325" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:endParaRPr lang="de-DE" sz="1100"/>
         </a:p>
       </cdr:txBody>
@@ -2028,10 +2924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2065,42 +2961,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
     </row>
     <row r="2" spans="1:29">
       <c r="B2" t="s">
@@ -2122,7 +3018,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
@@ -2142,8 +3038,9 @@
       <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
-        <v>18</v>
+      <c r="O2" t="str">
+        <f>H2</f>
+        <v>Libav NEON + Handopt.</v>
       </c>
       <c r="P2" t="s">
         <v>4</v>
@@ -2163,8 +3060,9 @@
       <c r="U2" t="s">
         <v>9</v>
       </c>
-      <c r="V2" t="s">
-        <v>18</v>
+      <c r="V2" t="str">
+        <f>O2</f>
+        <v>Libav NEON + Handopt.</v>
       </c>
       <c r="W2" t="s">
         <v>4</v>
@@ -2184,8 +3082,9 @@
       <c r="AB2" t="s">
         <v>9</v>
       </c>
-      <c r="AC2" t="s">
-        <v>18</v>
+      <c r="AC2" t="str">
+        <f>V2</f>
+        <v>Libav NEON + Handopt.</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -2485,7 +3384,7 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <f>SUM(B3:B5)</f>
@@ -2912,6 +3811,88 @@
         <v>3.2874883638020171</v>
       </c>
     </row>
+    <row r="32" spans="1:13">
+      <c r="B32" t="str">
+        <f>B2</f>
+        <v>ARM</v>
+      </c>
+      <c r="C32" t="str">
+        <f>H2</f>
+        <v>Libav NEON + Handopt.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="str">
+        <f>A27</f>
+        <v>MCL1</v>
+      </c>
+      <c r="B33">
+        <f>B7</f>
+        <v>1725.9999999999998</v>
+      </c>
+      <c r="C33">
+        <f>H7</f>
+        <v>115.52</v>
+      </c>
+      <c r="D33" s="2">
+        <f>1-C33/B33</f>
+        <v>0.93307068366164536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="str">
+        <f t="shared" ref="A34:A36" si="12">A28</f>
+        <v>MCL2</v>
+      </c>
+      <c r="B34">
+        <f>I7</f>
+        <v>4150.0700000000006</v>
+      </c>
+      <c r="C34">
+        <f>O7</f>
+        <v>673.77</v>
+      </c>
+      <c r="D34" s="2">
+        <f>1-C34/B34</f>
+        <v>0.83764852159120207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="str">
+        <f t="shared" si="12"/>
+        <v>MCL3</v>
+      </c>
+      <c r="B35">
+        <f>P7</f>
+        <v>178.55999999999997</v>
+      </c>
+      <c r="C35">
+        <f>V7</f>
+        <v>69.080000000000013</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" ref="D35:D36" si="13">1-C35/B35</f>
+        <v>0.61312724014336906</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="str">
+        <f t="shared" si="12"/>
+        <v>MCL4</v>
+      </c>
+      <c r="B36">
+        <f>W7</f>
+        <v>1659.8200000000004</v>
+      </c>
+      <c r="C36">
+        <f>AC7</f>
+        <v>93.83</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="13"/>
+        <v>0.94346977383089736</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:H1"/>
@@ -2926,10 +3907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2956,30 +3937,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
@@ -3295,7 +4276,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <f>SUM(B3:B6)</f>
@@ -3360,6 +4341,84 @@
       <c r="Q8">
         <f t="shared" si="0"/>
         <v>79.551999999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" t="str">
+        <f>B2</f>
+        <v>DSP</v>
+      </c>
+      <c r="C13" t="str">
+        <f>E2</f>
+        <v>MATHLIB+DSPLIB+SPLOOP</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f>B8</f>
+        <v>587.71100000000001</v>
+      </c>
+      <c r="C14">
+        <f>E8</f>
+        <v>69.47399999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <f>1-C14/B14</f>
+        <v>0.88178883839165856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f>F8</f>
+        <v>1511.5500000000002</v>
+      </c>
+      <c r="C15">
+        <f>I8</f>
+        <v>361.553</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:D17" si="1">1-C15/B15</f>
+        <v>0.76080645694816584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f>J8</f>
+        <v>47.14</v>
+      </c>
+      <c r="C16">
+        <f>M8</f>
+        <v>22.361000000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5256470089096309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f>N8</f>
+        <v>570.66199999999992</v>
+      </c>
+      <c r="C17">
+        <f>Q8</f>
+        <v>79.551999999999992</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.86059699086324304</v>
       </c>
     </row>
   </sheetData>
@@ -3377,8 +4436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
   <si>
     <t>MCL1</t>
   </si>
@@ -80,6 +80,18 @@
   <si>
     <t>Libav NEON + Handopt.</t>
   </si>
+  <si>
+    <t>Referenz ARM</t>
+  </si>
+  <si>
+    <t>optimiert ARM</t>
+  </si>
+  <si>
+    <t>Referenz DSP</t>
+  </si>
+  <si>
+    <t>optimiert DSP</t>
+  </si>
 </sst>
 </file>
 
@@ -126,10 +138,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -319,24 +331,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50050944"/>
-        <c:axId val="50052480"/>
+        <c:axId val="78048640"/>
+        <c:axId val="81151104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50050944"/>
+        <c:axId val="78048640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50052480"/>
+        <c:crossAx val="81151104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50052480"/>
+        <c:axId val="81151104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -363,7 +375,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50050944"/>
+        <c:crossAx val="78048640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -555,24 +567,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50272128"/>
-        <c:axId val="50273664"/>
+        <c:axId val="86634880"/>
+        <c:axId val="86636416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50272128"/>
+        <c:axId val="86634880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50273664"/>
+        <c:crossAx val="86636416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50273664"/>
+        <c:axId val="86636416"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -599,7 +611,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50272128"/>
+        <c:crossAx val="86634880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -843,25 +855,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50648192"/>
-        <c:axId val="50649728"/>
+        <c:axId val="92839296"/>
+        <c:axId val="92853376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50648192"/>
+        <c:axId val="92839296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50649728"/>
+        <c:crossAx val="92853376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50649728"/>
+        <c:axId val="92853376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +900,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50648192"/>
+        <c:crossAx val="92839296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -914,7 +926,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1041,24 +1053,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50674688"/>
-        <c:axId val="50688768"/>
+        <c:axId val="92956160"/>
+        <c:axId val="92957696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50674688"/>
+        <c:axId val="92956160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50688768"/>
+        <c:crossAx val="92957696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50688768"/>
+        <c:axId val="92957696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1085,7 +1097,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50674688"/>
+        <c:crossAx val="92956160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1111,10 +1123,307 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Referenz ARM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$21:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$B$21:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1725.9999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4150.0700000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178.55999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1659.8200000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optimiert ARM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$21:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>115.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>673.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.080000000000013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Referenz DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$21:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$D$21:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>587.71100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1511.5500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>570.66199999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optimiert DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$21:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$E$21:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>69.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>361.553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.556999999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="51838336"/>
+        <c:axId val="52110464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="51838336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52110464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52110464"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51838336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2256,6 +2565,36 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Diagramm 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2926,7 +3265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -2961,42 +3300,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
     </row>
     <row r="2" spans="1:29">
       <c r="B2" t="s">
@@ -3907,10 +4246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3937,30 +4276,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
@@ -4365,7 +4704,7 @@
         <f>E8</f>
         <v>69.47399999999999</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f>1-C14/B14</f>
         <v>0.88178883839165856</v>
       </c>
@@ -4382,7 +4721,7 @@
         <f>I8</f>
         <v>361.553</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <f t="shared" ref="D15:D17" si="1">1-C15/B15</f>
         <v>0.76080645694816584</v>
       </c>
@@ -4399,12 +4738,12 @@
         <f>M8</f>
         <v>22.361000000000001</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <f t="shared" si="1"/>
         <v>0.5256470089096309</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -4416,9 +4755,139 @@
         <f>Q8</f>
         <v>79.551999999999992</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <f t="shared" si="1"/>
         <v>0.86059699086324304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <f>ARM!B7</f>
+        <v>1725.9999999999998</v>
+      </c>
+      <c r="C21">
+        <f>ARM!H7</f>
+        <v>115.52</v>
+      </c>
+      <c r="D21">
+        <f>B8</f>
+        <v>587.71100000000001</v>
+      </c>
+      <c r="E21">
+        <f>E8</f>
+        <v>69.47399999999999</v>
+      </c>
+      <c r="F21">
+        <f>D21/E21</f>
+        <v>8.4594380631603201</v>
+      </c>
+      <c r="G21">
+        <f>C21/E21</f>
+        <v>1.6627803206955123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f>ARM!I7</f>
+        <v>4150.0700000000006</v>
+      </c>
+      <c r="C22">
+        <f>ARM!O7</f>
+        <v>673.77</v>
+      </c>
+      <c r="D22">
+        <f>F8</f>
+        <v>1511.5500000000002</v>
+      </c>
+      <c r="E22">
+        <f>I8</f>
+        <v>361.553</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F24" si="2">D22/E22</f>
+        <v>4.1807148606151801</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G24" si="3">C22/E22</f>
+        <v>1.8635442106689752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <f>ARM!P7</f>
+        <v>178.55999999999997</v>
+      </c>
+      <c r="C23">
+        <f>ARM!V7</f>
+        <v>69.080000000000013</v>
+      </c>
+      <c r="D23">
+        <f>J8</f>
+        <v>47.14</v>
+      </c>
+      <c r="E23">
+        <f>M8</f>
+        <v>22.361000000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>2.1081346988059568</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>3.0893072760609996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <f>ARM!W7</f>
+        <v>1659.8200000000004</v>
+      </c>
+      <c r="C24">
+        <f>ARM!AC7</f>
+        <v>93.83</v>
+      </c>
+      <c r="D24">
+        <f>N8</f>
+        <v>570.66199999999992</v>
+      </c>
+      <c r="E24">
+        <f>P8</f>
+        <v>79.556999999999988</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>7.1729954623728895</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>1.1794059605063039</v>
       </c>
     </row>
   </sheetData>
@@ -4436,8 +4905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
   <si>
     <t>MCL1</t>
   </si>
@@ -134,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -142,6 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -331,24 +332,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78048640"/>
-        <c:axId val="81151104"/>
+        <c:axId val="59774464"/>
+        <c:axId val="59776000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78048640"/>
+        <c:axId val="59774464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81151104"/>
+        <c:crossAx val="59776000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81151104"/>
+        <c:axId val="59776000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -371,18 +372,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78048640"/>
+        <c:crossAx val="59774464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -567,24 +566,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="86634880"/>
-        <c:axId val="86636416"/>
+        <c:axId val="57820672"/>
+        <c:axId val="57822208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86634880"/>
+        <c:axId val="57820672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86636416"/>
+        <c:crossAx val="57822208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86636416"/>
+        <c:axId val="57822208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -607,18 +606,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86634880"/>
+        <c:crossAx val="57820672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -855,25 +852,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92839296"/>
-        <c:axId val="92853376"/>
+        <c:axId val="59765504"/>
+        <c:axId val="59767040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92839296"/>
+        <c:axId val="59765504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92853376"/>
+        <c:crossAx val="59767040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92853376"/>
+        <c:axId val="59767040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,19 +892,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92839296"/>
+        <c:crossAx val="59765504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -926,7 +921,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1053,24 +1048,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92956160"/>
-        <c:axId val="92957696"/>
+        <c:axId val="59853440"/>
+        <c:axId val="59888000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92956160"/>
+        <c:axId val="59853440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92957696"/>
+        <c:crossAx val="59888000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92957696"/>
+        <c:axId val="59888000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1093,18 +1088,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92956160"/>
+        <c:crossAx val="59853440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1123,7 +1116,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1364,24 +1357,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="51838336"/>
-        <c:axId val="52110464"/>
+        <c:axId val="60496128"/>
+        <c:axId val="60506112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51838336"/>
+        <c:axId val="60496128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52110464"/>
+        <c:crossAx val="60506112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52110464"/>
+        <c:axId val="60506112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1404,24 +1397,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51838336"/>
+        <c:crossAx val="60496128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4246,10 +4237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4890,6 +4881,90 @@
         <v>1.1794059605063039</v>
       </c>
     </row>
+    <row r="27" spans="1:7">
+      <c r="B27" t="str">
+        <f>ARM!V2</f>
+        <v>Libav NEON + Handopt.</v>
+      </c>
+      <c r="C27" t="str">
+        <f>E2</f>
+        <v>MATHLIB+DSPLIB+SPLOOP</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <f>ARM!H7</f>
+        <v>115.52</v>
+      </c>
+      <c r="C28">
+        <f>E8</f>
+        <v>69.47399999999999</v>
+      </c>
+      <c r="D28" s="5">
+        <f>1-C28/B28</f>
+        <v>0.39859764542936293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <f>ARM!O7</f>
+        <v>673.77</v>
+      </c>
+      <c r="C29">
+        <f>I8</f>
+        <v>361.553</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" ref="D29:D31" si="4">1-C29/B29</f>
+        <v>0.46338809979666651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <f>ARM!V7</f>
+        <v>69.080000000000013</v>
+      </c>
+      <c r="C30">
+        <f>M8</f>
+        <v>22.361000000000001</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="4"/>
+        <v>0.67630283729009855</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <f>ARM!AC7</f>
+        <v>93.83</v>
+      </c>
+      <c r="C31">
+        <f>Q8</f>
+        <v>79.551999999999992</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="4"/>
+        <v>0.15216881594372811</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="5">
+        <f>SUM(D28:D31)/4</f>
+        <v>0.42261434961496402</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:E1"/>

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="21315" windowHeight="9525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="21315" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ARM" sheetId="1" r:id="rId1"/>
@@ -134,15 +134,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -332,24 +333,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="59774464"/>
-        <c:axId val="59776000"/>
+        <c:axId val="72558464"/>
+        <c:axId val="72560000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59774464"/>
+        <c:axId val="72558464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59776000"/>
+        <c:crossAx val="72560000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59776000"/>
+        <c:axId val="72560000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -372,16 +373,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59774464"/>
+        <c:crossAx val="72558464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -566,24 +569,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="57820672"/>
-        <c:axId val="57822208"/>
+        <c:axId val="48155264"/>
+        <c:axId val="48161152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57820672"/>
+        <c:axId val="48155264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57822208"/>
+        <c:crossAx val="48161152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57822208"/>
+        <c:axId val="48161152"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -606,16 +609,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57820672"/>
+        <c:crossAx val="48155264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -852,25 +857,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="59765504"/>
-        <c:axId val="59767040"/>
+        <c:axId val="66353024"/>
+        <c:axId val="66354560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59765504"/>
+        <c:axId val="66353024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59767040"/>
+        <c:crossAx val="66354560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59767040"/>
+        <c:axId val="66354560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,17 +897,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59765504"/>
+        <c:crossAx val="66353024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1048,24 +1055,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="59853440"/>
-        <c:axId val="59888000"/>
+        <c:axId val="70262784"/>
+        <c:axId val="70264320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59853440"/>
+        <c:axId val="70262784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59888000"/>
+        <c:crossAx val="70264320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59888000"/>
+        <c:axId val="70264320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1088,16 +1095,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59853440"/>
+        <c:crossAx val="70262784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1116,7 +1125,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1345,7 +1354,7 @@
                   <c:v>69.47399999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>361.553</c:v>
+                  <c:v>352.04300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>22.361000000000001</c:v>
@@ -1357,24 +1366,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60496128"/>
-        <c:axId val="60506112"/>
+        <c:axId val="74161536"/>
+        <c:axId val="74179712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60496128"/>
+        <c:axId val="74161536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60506112"/>
+        <c:crossAx val="74179712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60506112"/>
+        <c:axId val="74179712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1397,24 +1406,237 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60496128"/>
+        <c:crossAx val="74161536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>587.71100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1511.5500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>570.66199999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB+SPLOOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>69.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.551999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="65897984"/>
+        <c:axId val="68926080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="65897984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68926080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68926080"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65897984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2559,15 +2781,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2584,6 +2806,515 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="Gruppieren 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9524" y="12563475"/>
+          <a:ext cx="7915275" cy="5048250"/>
+          <a:chOff x="9524" y="12563475"/>
+          <a:chExt cx="7915275" cy="5048250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="17" name="Diagramm 16"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="9524" y="12563475"/>
+          <a:ext cx="7915275" cy="5048250"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="DSP!D14">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Pfeil nach unten 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1733550" y="14344650"/>
+            <a:ext cx="457200" cy="957262"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vert="vert270" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:fld id="{C4A4B9E7-350B-415F-92D0-A80BB512F750}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>88%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="DSP!D15">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Pfeil nach unten 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3467100" y="13887449"/>
+            <a:ext cx="457200" cy="661987"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vert="vert270" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:fld id="{508F53F6-3378-485B-A3B3-2CC36608C380}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>77%</a:t>
+            </a:fld>
+            <a:endParaRPr lang="de-DE" sz="900">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="DSP!D16">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Pfeil nach unten 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5210175" y="15497175"/>
+            <a:ext cx="457200" cy="338136"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vert="vert270" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:fld id="{5F748D14-39E4-4528-8B56-7B7C5D36BCC5}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>53</a:t>
+            </a:fld>
+            <a:endParaRPr lang="de-DE" sz="1100">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2784,6 +3515,167 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.87605</cdr:x>
+      <cdr:y>0.35094</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93381</cdr:x>
+      <cdr:y>0.53113</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="DSP!$D$17">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Pfeil nach unten 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6934200" y="1771649"/>
+          <a:ext cx="457200" cy="909637"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:shade val="50000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vert="vert270" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fld id="{792D2141-994B-47B2-9E53-81DC20D2A7D9}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>86%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="de-DE" sz="900">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2799,7 +3691,7 @@
       <sheetName val="DSP MCL4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="9">
           <cell r="B9">
@@ -2928,7 +3820,7 @@
             <v>207.917</v>
           </cell>
           <cell r="E9">
-            <v>207.91300000000001</v>
+            <v>198.40300000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -3291,42 +4183,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
     </row>
     <row r="2" spans="1:29">
       <c r="B2" t="s">
@@ -4239,8 +5131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4267,30 +5159,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
@@ -4378,7 +5270,7 @@
       </c>
       <c r="I3">
         <f>'[1]DSP MCL2'!E9</f>
-        <v>207.91300000000001</v>
+        <v>198.40300000000002</v>
       </c>
       <c r="J3">
         <f>'[1]DSP MCL3'!B6</f>
@@ -4638,7 +5530,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>361.553</v>
+        <v>352.04300000000001</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
@@ -4710,11 +5602,11 @@
       </c>
       <c r="C15">
         <f>I8</f>
-        <v>361.553</v>
+        <v>352.04300000000001</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ref="D15:D17" si="1">1-C15/B15</f>
-        <v>0.76080645694816584</v>
+        <v>0.76709801197446326</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4729,9 +5621,9 @@
         <f>M8</f>
         <v>22.361000000000001</v>
       </c>
-      <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.5256470089096309</v>
+      <c r="D16" s="6">
+        <f>(1-C16/B16)*100</f>
+        <v>52.564700890963088</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4812,15 +5704,15 @@
       </c>
       <c r="E22">
         <f>I8</f>
-        <v>361.553</v>
+        <v>352.04300000000001</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22:F24" si="2">D22/E22</f>
-        <v>4.1807148606151801</v>
+        <v>4.2936516277841061</v>
       </c>
       <c r="G22">
         <f t="shared" ref="G22:G24" si="3">C22/E22</f>
-        <v>1.8635442106689752</v>
+        <v>1.9138855196666316</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4903,7 +5795,7 @@
         <f>E8</f>
         <v>69.47399999999999</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f>1-C28/B28</f>
         <v>0.39859764542936293</v>
       </c>
@@ -4918,11 +5810,11 @@
       </c>
       <c r="C29">
         <f>I8</f>
-        <v>361.553</v>
-      </c>
-      <c r="D29" s="5">
+        <v>352.04300000000001</v>
+      </c>
+      <c r="D29" s="4">
         <f t="shared" ref="D29:D31" si="4">1-C29/B29</f>
-        <v>0.46338809979666651</v>
+        <v>0.47750270863944666</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4937,7 +5829,7 @@
         <f>M8</f>
         <v>22.361000000000001</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <f t="shared" si="4"/>
         <v>0.67630283729009855</v>
       </c>
@@ -4954,15 +5846,15 @@
         <f>Q8</f>
         <v>79.551999999999992</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <f t="shared" si="4"/>
         <v>0.15216881594372811</v>
       </c>
     </row>
     <row r="33" spans="4:4">
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f>SUM(D28:D31)/4</f>
-        <v>0.42261434961496402</v>
+        <v>0.42614300182565912</v>
       </c>
     </row>
   </sheetData>
@@ -4980,8 +5872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="21315" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="21315" windowHeight="9525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARM" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="30">
   <si>
     <t>MCL1</t>
   </si>
@@ -92,6 +92,24 @@
   <si>
     <t>optimiert DSP</t>
   </si>
+  <si>
+    <t>Optimiert</t>
+  </si>
+  <si>
+    <t>Unoptimiert</t>
+  </si>
+  <si>
+    <t>Energie:</t>
+  </si>
+  <si>
+    <t>hete. Sys.</t>
+  </si>
+  <si>
+    <t>ARM:</t>
+  </si>
+  <si>
+    <t>hete;</t>
+  </si>
 </sst>
 </file>
 
@@ -140,10 +158,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -333,24 +351,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="72558464"/>
-        <c:axId val="72560000"/>
+        <c:axId val="46724608"/>
+        <c:axId val="46726144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72558464"/>
+        <c:axId val="46724608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72560000"/>
+        <c:crossAx val="46726144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72560000"/>
+        <c:axId val="46726144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -377,7 +395,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72558464"/>
+        <c:crossAx val="46724608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -409,6 +427,398 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$D$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$45:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$D$45:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>51.221950859709224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7821656697591308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.656626567944528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.062557426341357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hete. Sys.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$45:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$E$45:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39.220365033350255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7399512000720811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.85482046093536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.251755333957355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="78396032"/>
+        <c:axId val="78410112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="78396032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78410112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78410112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energie-Effizienz in[MCL/J]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78396032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$D$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$45:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$D$45:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>51.221950859709224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7821656697591308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.656626567944528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.062557426341357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hete. Sys.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$45:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$E$45:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39.220365033350255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7399512000720811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.85482046093536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.251755333957355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="108417024"/>
+        <c:axId val="108418944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="108417024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108418944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108418944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energie-Effizienz in [MCL/J]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108417024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
@@ -569,24 +979,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="48155264"/>
-        <c:axId val="48161152"/>
+        <c:axId val="80366592"/>
+        <c:axId val="80397056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48155264"/>
+        <c:axId val="80366592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48161152"/>
+        <c:crossAx val="80397056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48161152"/>
+        <c:axId val="80397056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -613,7 +1023,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48155264"/>
+        <c:crossAx val="80366592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -857,25 +1267,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66353024"/>
-        <c:axId val="66354560"/>
+        <c:axId val="52042752"/>
+        <c:axId val="52048640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66353024"/>
+        <c:axId val="52042752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66354560"/>
+        <c:crossAx val="52048640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66354560"/>
+        <c:axId val="52048640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +1312,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66353024"/>
+        <c:crossAx val="52042752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1055,24 +1465,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="70262784"/>
-        <c:axId val="70264320"/>
+        <c:axId val="52073600"/>
+        <c:axId val="52075136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70262784"/>
+        <c:axId val="52073600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70264320"/>
+        <c:crossAx val="52075136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70264320"/>
+        <c:axId val="52075136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1099,7 +1509,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70262784"/>
+        <c:crossAx val="52073600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1125,7 +1535,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1135,7 +1545,6 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:style val="18"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1147,18 +1556,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>DSP!$B$20</c:f>
+              <c:f>DSP!$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Referenz ARM</c:v>
+                  <c:v>ARM+NEON</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>DSP!$A$21:$A$24</c:f>
+              <c:f>DSP!$A$45:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1178,21 +1587,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DSP!$B$21:$B$24</c:f>
+              <c:f>DSP!$B$45:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1725.9999999999998</c:v>
+                  <c:v>115.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4150.0700000000006</c:v>
+                  <c:v>673.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>178.55999999999997</c:v>
+                  <c:v>69.080000000000013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1659.8200000000004</c:v>
+                  <c:v>93.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,18 +1612,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>DSP!$C$20</c:f>
+              <c:f>DSP!$C$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>optimiert ARM</c:v>
+                  <c:v>hete. Sys.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>DSP!$A$21:$A$24</c:f>
+              <c:f>DSP!$A$45:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1234,156 +1643,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DSP!$C$21:$C$24</c:f>
+              <c:f>DSP!$C$45:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>115.52</c:v>
+                  <c:v>69.47399999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>673.77</c:v>
+                  <c:v>352.04300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.080000000000013</c:v>
+                  <c:v>22.361000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.83</c:v>
+                  <c:v>79.551999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$D$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Referenz DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$21:$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$D$21:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>587.71100000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1511.5500000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>570.66199999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$E$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>optimiert DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$21:$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$E$21:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>69.47399999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>352.04300000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.361000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.556999999999988</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="74161536"/>
-        <c:axId val="74179712"/>
+        <c:axId val="50599808"/>
+        <c:axId val="50601344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74161536"/>
+        <c:axId val="50599808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74179712"/>
+        <c:crossAx val="50601344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74179712"/>
+        <c:axId val="50601344"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1410,7 +1707,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74161536"/>
+        <c:crossAx val="50599808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1421,22 +1718,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1563,24 +1847,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="65897984"/>
-        <c:axId val="68926080"/>
+        <c:axId val="50925568"/>
+        <c:axId val="50927104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65897984"/>
+        <c:axId val="50925568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68926080"/>
+        <c:crossAx val="50927104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68926080"/>
+        <c:axId val="50927104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1607,7 +1891,204 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65897984"/>
+        <c:crossAx val="50925568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimiert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$B$37:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>587.71100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1511.5500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>570.66199999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimiert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$C$37:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>69.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.551999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="78428416"/>
+        <c:axId val="82386944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="78428416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82386944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82386944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78428416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1636,7 +2117,399 @@
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimiert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$D$37:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.6362849092955134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8026500217174262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.8021985644246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.774797761769622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimiert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$E$37:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39.220365033350255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7399512000720811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.85482046093536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.251755333957355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="52627328"/>
+        <c:axId val="52642176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="52627328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52642176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52642176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energie-Effizienz in [MCL/J]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52627328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$45:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$B$45:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>115.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>673.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.080000000000013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hete. Sys.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$45:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$C$45:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>69.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.551999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="75585792"/>
+        <c:axId val="76685696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="75585792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76685696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76685696"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75585792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2990,6 +3863,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>88%</a:t>
             </a:fld>
             <a:endParaRPr lang="de-DE" sz="900">
@@ -3145,6 +4019,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>77%</a:t>
             </a:fld>
             <a:endParaRPr lang="de-DE" sz="900">
@@ -3300,6 +4175,7 @@
                 <a:latin typeface="Calibri"/>
                 <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
               </a:rPr>
+              <a:pPr/>
               <a:t>53</a:t>
             </a:fld>
             <a:endParaRPr lang="de-DE" sz="1100">
@@ -3315,6 +4191,156 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Diagramm 22"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Diagramm 23"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Diagramm 24"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Diagramm 25"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Diagramm 26"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3658,6 +4684,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>86%</a:t>
           </a:fld>
           <a:endParaRPr lang="de-DE" sz="900">
@@ -3691,7 +4718,7 @@
       <sheetName val="DSP MCL4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="9">
           <cell r="B9">
@@ -4148,7 +5175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -4183,42 +5210,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
     </row>
     <row r="2" spans="1:29">
       <c r="B2" t="s">
@@ -5129,10 +6156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5159,30 +6186,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
@@ -5621,7 +6648,7 @@
         <f>M8</f>
         <v>22.361000000000001</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>(1-C16/B16)*100</f>
         <v>52.564700890963088</v>
       </c>
@@ -5851,10 +6878,303 @@
         <v>0.15216881594372811</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="1:6">
       <c r="D33" s="4">
         <f>SUM(D28:D31)/4</f>
         <v>0.42614300182565912</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f>B8</f>
+        <v>587.71100000000001</v>
+      </c>
+      <c r="C37">
+        <f>E8</f>
+        <v>69.47399999999999</v>
+      </c>
+      <c r="D37">
+        <f>1000/B37/$B$42</f>
+        <v>4.6362849092955134</v>
+      </c>
+      <c r="E37">
+        <f>1000/C37/$B$42</f>
+        <v>39.220365033350255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <f>F8</f>
+        <v>1511.5500000000002</v>
+      </c>
+      <c r="C38">
+        <f>I8</f>
+        <v>352.04300000000001</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:E40" si="5">1000/B38/$B$42</f>
+        <v>1.8026500217174262</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="5"/>
+        <v>7.7399512000720811</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <f>J8</f>
+        <v>47.14</v>
+      </c>
+      <c r="C39">
+        <f>M8</f>
+        <v>22.361000000000001</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>57.8021985644246</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="5"/>
+        <v>121.85482046093536</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <f>N8</f>
+        <v>570.66199999999992</v>
+      </c>
+      <c r="C40">
+        <f>Q8</f>
+        <v>79.551999999999992</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>4.774797761769622</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="5"/>
+        <v>34.251755333957355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <f>ARM!H7</f>
+        <v>115.52</v>
+      </c>
+      <c r="C45">
+        <f>C37</f>
+        <v>69.47399999999999</v>
+      </c>
+      <c r="D45">
+        <f>1000/B45/$B$50</f>
+        <v>51.221950859709224</v>
+      </c>
+      <c r="E45">
+        <f>1000/C45/$B$51</f>
+        <v>39.220365033350255</v>
+      </c>
+      <c r="F45">
+        <f>D45/E45</f>
+        <v>1.3060039297480699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <f>ARM!O7</f>
+        <v>673.77</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:C48" si="6">C38</f>
+        <v>352.04300000000001</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:E48" si="7">1000/B46/$B$50</f>
+        <v>8.7821656697591308</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46:E48" si="8">1000/C46/$B$51</f>
+        <v>7.7399512000720811</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46:F48" si="9">D46/E46</f>
+        <v>1.134653881238598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <f>ARM!V7</f>
+        <v>69.080000000000013</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="6"/>
+        <v>22.361000000000001</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="7"/>
+        <v>85.656626567944528</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="8"/>
+        <v>121.85482046093536</v>
+      </c>
+      <c r="F47">
+        <f>E47/D47</f>
+        <v>1.4225965385675994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <f>ARM!AC7</f>
+        <v>93.83</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="6"/>
+        <v>79.551999999999992</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="7"/>
+        <v>63.062557426341357</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="8"/>
+        <v>34.251755333957355</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="9"/>
+        <v>1.8411481925955728</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <f>B42</f>
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53">
+        <f>C45/B45</f>
+        <v>0.60140235457063707</v>
+      </c>
+      <c r="C53">
+        <f>E37/D37</f>
+        <v>8.4594380631603201</v>
+      </c>
+      <c r="D53">
+        <f>B45/C45</f>
+        <v>1.6627803206955123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54">
+        <f t="shared" ref="B54:B56" si="10">C46/B46</f>
+        <v>0.52249729136055334</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:C56" si="11">E38/D38</f>
+        <v>4.2936516277841061</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:D56" si="12">B46/C46</f>
+        <v>1.9138855196666316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55">
+        <f t="shared" si="10"/>
+        <v>0.32369716270990151</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="11"/>
+        <v>2.1081346988059568</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="12"/>
+        <v>3.0893072760609996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="B56">
+        <f t="shared" si="10"/>
+        <v>0.84783118405627189</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="11"/>
+        <v>7.1734462992759438</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="12"/>
+        <v>1.1794800884955754</v>
       </c>
     </row>
   </sheetData>
@@ -5872,8 +7192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="21315" windowHeight="9525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="21315" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ARM" sheetId="1" r:id="rId1"/>
@@ -351,24 +351,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="46724608"/>
-        <c:axId val="46726144"/>
+        <c:axId val="73342336"/>
+        <c:axId val="73372800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46724608"/>
+        <c:axId val="73342336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46726144"/>
+        <c:crossAx val="73372800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46726144"/>
+        <c:axId val="73372800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -395,7 +395,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46724608"/>
+        <c:crossAx val="73342336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -477,16 +477,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>51.221950859709224</c:v>
+                  <c:v>683.55029585798809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7821656697591308</c:v>
+                  <c:v>3986.8047337278103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.656626567944528</c:v>
+                  <c:v>408.75739644970417</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.062557426341357</c:v>
+                  <c:v>555.20710059171597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,39 +533,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>39.220365033350255</c:v>
+                  <c:v>189.30245231607626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7399512000720811</c:v>
+                  <c:v>959.24523160762942</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>121.85482046093536</c:v>
+                  <c:v>60.929155313351501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.251755333957355</c:v>
+                  <c:v>216.76294277929154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78396032"/>
-        <c:axId val="78410112"/>
+        <c:axId val="76830976"/>
+        <c:axId val="76832768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78396032"/>
+        <c:axId val="76830976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78410112"/>
+        <c:crossAx val="76832768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78410112"/>
+        <c:axId val="76832768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,11 +587,205 @@
               </a:p>
             </c:rich>
           </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76830976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$D$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$45:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$D$45:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>683.55029585798809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3986.8047337278103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>408.75739644970417</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>555.20710059171597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hete. Sys.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$45:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$E$45:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>189.30245231607626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>959.24523160762942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.929155313351501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216.76294277929154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="76861824"/>
+        <c:axId val="76863360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="76861824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76863360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76863360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energie-Effizienz in [MCL/J]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78396032"/>
+        <c:crossAx val="76861824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -617,203 +811,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$D$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$45:$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$D$45:$D$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>51.221950859709224</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.7821656697591308</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85.656626567944528</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63.062557426341357</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$E$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>hete. Sys.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$45:$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$E$45:$E$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>39.220365033350255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7399512000720811</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121.85482046093536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.251755333957355</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="108417024"/>
-        <c:axId val="108418944"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="108417024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108418944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="108418944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Energie-Effizienz in [MCL/J]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108417024"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -979,24 +977,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80366592"/>
-        <c:axId val="80397056"/>
+        <c:axId val="73871744"/>
+        <c:axId val="73873280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80366592"/>
+        <c:axId val="73871744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80397056"/>
+        <c:crossAx val="73873280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80397056"/>
+        <c:axId val="73873280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1023,7 +1021,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80366592"/>
+        <c:crossAx val="73871744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1267,25 +1265,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52042752"/>
-        <c:axId val="52048640"/>
+        <c:axId val="75894144"/>
+        <c:axId val="75900032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52042752"/>
+        <c:axId val="75894144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52048640"/>
+        <c:crossAx val="75900032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52048640"/>
+        <c:axId val="75900032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1310,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52042752"/>
+        <c:crossAx val="75894144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1465,24 +1463,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52073600"/>
-        <c:axId val="52075136"/>
+        <c:axId val="75929088"/>
+        <c:axId val="75930624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52073600"/>
+        <c:axId val="75929088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52075136"/>
+        <c:crossAx val="75930624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52075136"/>
+        <c:axId val="75930624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1509,7 +1507,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52073600"/>
+        <c:crossAx val="75929088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1663,24 +1661,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50599808"/>
-        <c:axId val="50601344"/>
+        <c:axId val="70389120"/>
+        <c:axId val="70407296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50599808"/>
+        <c:axId val="70389120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50601344"/>
+        <c:crossAx val="70407296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50601344"/>
+        <c:axId val="70407296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1707,7 +1705,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50599808"/>
+        <c:crossAx val="70389120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1720,7 +1718,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1847,26 +1845,221 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50925568"/>
-        <c:axId val="50927104"/>
+        <c:axId val="70437504"/>
+        <c:axId val="70443392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50925568"/>
+        <c:axId val="70437504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50927104"/>
+        <c:crossAx val="70443392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50927104"/>
+        <c:axId val="70443392"/>
         <c:scaling>
           <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70437504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimiert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$B$37:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>587.71100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1511.5500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>570.66199999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimiert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$C$37:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>69.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.551999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="78222080"/>
+        <c:axId val="78223616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="78222080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78223616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78223616"/>
+        <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -1891,7 +2084,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50925568"/>
+        <c:crossAx val="78222080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1920,203 +2113,6 @@
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimiert</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$37:$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$B$37:$B$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>587.71100000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1511.5500000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>570.66199999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$C$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimiert</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$37:$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$C$37:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>69.47399999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>352.04300000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.361000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.551999999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="78428416"/>
-        <c:axId val="82386944"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="78428416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82386944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="82386944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78428416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2241,24 +2237,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52627328"/>
-        <c:axId val="52642176"/>
+        <c:axId val="78219904"/>
+        <c:axId val="78225792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52627328"/>
+        <c:axId val="78219904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52642176"/>
+        <c:crossAx val="78225792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52642176"/>
+        <c:axId val="78225792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,18 +2276,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52627328"/>
+        <c:crossAx val="78219904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2310,7 +2304,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2437,24 +2431,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75585792"/>
-        <c:axId val="76685696"/>
+        <c:axId val="78311808"/>
+        <c:axId val="78313344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75585792"/>
+        <c:axId val="78311808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76685696"/>
+        <c:crossAx val="78313344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76685696"/>
+        <c:axId val="78313344"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2477,18 +2471,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75585792"/>
+        <c:crossAx val="78311808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2507,7 +2499,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -6158,8 +6150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7017,16 +7009,16 @@
         <v>69.47399999999999</v>
       </c>
       <c r="D45">
-        <f>1000/B45/$B$50</f>
-        <v>51.221950859709224</v>
+        <f>B45/$B$50</f>
+        <v>683.55029585798809</v>
       </c>
       <c r="E45">
-        <f>1000/C45/$B$51</f>
-        <v>39.220365033350255</v>
+        <f>C45/$B$51</f>
+        <v>189.30245231607626</v>
       </c>
       <c r="F45">
         <f>D45/E45</f>
-        <v>1.3060039297480699</v>
+        <v>3.6108898088476504</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7042,16 +7034,16 @@
         <v>352.04300000000001</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:E48" si="7">1000/B46/$B$50</f>
-        <v>8.7821656697591308</v>
+        <f t="shared" ref="D46:D48" si="7">B46/$B$50</f>
+        <v>3986.8047337278103</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46:E48" si="8">1000/C46/$B$51</f>
-        <v>7.7399512000720811</v>
+        <f t="shared" ref="E46:E48" si="8">C46/$B$51</f>
+        <v>959.24523160762942</v>
       </c>
       <c r="F46">
         <f t="shared" ref="F46:F48" si="9">D46/E46</f>
-        <v>1.134653881238598</v>
+        <v>4.156189264601502</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7068,15 +7060,15 @@
       </c>
       <c r="D47">
         <f t="shared" si="7"/>
-        <v>85.656626567944528</v>
+        <v>408.75739644970417</v>
       </c>
       <c r="E47">
         <f t="shared" si="8"/>
-        <v>121.85482046093536</v>
+        <v>60.929155313351501</v>
       </c>
       <c r="F47">
-        <f>E47/D47</f>
-        <v>1.4225965385675994</v>
+        <f>D47/E47</f>
+        <v>6.7087323687241813</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7093,15 +7085,15 @@
       </c>
       <c r="D48">
         <f t="shared" si="7"/>
-        <v>63.062557426341357</v>
+        <v>555.20710059171597</v>
       </c>
       <c r="E48">
         <f t="shared" si="8"/>
-        <v>34.251755333957355</v>
+        <v>216.76294277929154</v>
       </c>
       <c r="F48">
         <f t="shared" si="9"/>
-        <v>1.8411481925955728</v>
+        <v>2.561356168508143</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7192,7 +7184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -351,24 +351,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="73342336"/>
-        <c:axId val="73372800"/>
+        <c:axId val="50326528"/>
+        <c:axId val="50373376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73342336"/>
+        <c:axId val="50326528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73372800"/>
+        <c:crossAx val="50373376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73372800"/>
+        <c:axId val="50373376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -395,7 +395,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73342336"/>
+        <c:crossAx val="50326528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -477,16 +477,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>683.55029585798809</c:v>
+                  <c:v>51.221950859709224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3986.8047337278103</c:v>
+                  <c:v>8.7821656697591308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>408.75739644970417</c:v>
+                  <c:v>85.656626567944528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>555.20710059171597</c:v>
+                  <c:v>63.062557426341357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,39 +533,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>189.30245231607626</c:v>
+                  <c:v>39.220365033350255</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>959.24523160762942</c:v>
+                  <c:v>7.7399512000720811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.929155313351501</c:v>
+                  <c:v>121.85482046093536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216.76294277929154</c:v>
+                  <c:v>34.251755333957355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76830976"/>
-        <c:axId val="76832768"/>
+        <c:axId val="70256128"/>
+        <c:axId val="70257664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76830976"/>
+        <c:axId val="70256128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76832768"/>
+        <c:crossAx val="70257664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76832768"/>
+        <c:axId val="70257664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +590,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76830976"/>
+        <c:crossAx val="70256128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -671,16 +671,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>683.55029585798809</c:v>
+                  <c:v>51.221950859709224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3986.8047337278103</c:v>
+                  <c:v>8.7821656697591308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>408.75739644970417</c:v>
+                  <c:v>85.656626567944528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>555.20710059171597</c:v>
+                  <c:v>63.062557426341357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,39 +727,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>189.30245231607626</c:v>
+                  <c:v>39.220365033350255</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>959.24523160762942</c:v>
+                  <c:v>7.7399512000720811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.929155313351501</c:v>
+                  <c:v>121.85482046093536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216.76294277929154</c:v>
+                  <c:v>34.251755333957355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76861824"/>
-        <c:axId val="76863360"/>
+        <c:axId val="70294912"/>
+        <c:axId val="70300800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76861824"/>
+        <c:axId val="70294912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76863360"/>
+        <c:crossAx val="70300800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76863360"/>
+        <c:axId val="70300800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +785,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76861824"/>
+        <c:crossAx val="70294912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -977,24 +977,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="73871744"/>
-        <c:axId val="73873280"/>
+        <c:axId val="49880064"/>
+        <c:axId val="49885952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73871744"/>
+        <c:axId val="49880064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73873280"/>
+        <c:crossAx val="49885952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73873280"/>
+        <c:axId val="49885952"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1021,7 +1021,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73871744"/>
+        <c:crossAx val="49880064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1265,25 +1265,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75894144"/>
-        <c:axId val="75900032"/>
+        <c:axId val="50133248"/>
+        <c:axId val="69607424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75894144"/>
+        <c:axId val="50133248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75900032"/>
+        <c:crossAx val="69607424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75900032"/>
+        <c:axId val="69607424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,7 +1310,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75894144"/>
+        <c:crossAx val="50133248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,24 +1463,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75929088"/>
-        <c:axId val="75930624"/>
+        <c:axId val="69644672"/>
+        <c:axId val="69646208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75929088"/>
+        <c:axId val="69644672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75930624"/>
+        <c:crossAx val="69646208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75930624"/>
+        <c:axId val="69646208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1507,7 +1507,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75929088"/>
+        <c:crossAx val="69644672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1661,24 +1661,207 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="70389120"/>
-        <c:axId val="70407296"/>
+        <c:axId val="49748224"/>
+        <c:axId val="49754112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70389120"/>
+        <c:axId val="49748224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70407296"/>
+        <c:crossAx val="49754112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70407296"/>
+        <c:axId val="49754112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49748224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>587.71100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1511.5500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>570.66199999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB+SPLOOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>69.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.551999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="70190592"/>
+        <c:axId val="70192128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="70190592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70192128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70192128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1705,7 +1888,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70389120"/>
+        <c:crossAx val="70190592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1713,188 +1896,6 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$14:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$B$14:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>587.71100000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1511.5500000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>570.66199999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB+SPLOOP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$14:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$C$14:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>69.47399999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>352.04300000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.361000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.551999999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="70437504"/>
-        <c:axId val="70443392"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="70437504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70443392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="70443392"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70437504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1924,70 +1925,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimiert</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$37:$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$B$37:$B$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>587.71100000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1511.5500000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>570.66199999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>DSP!$C$36</c:f>
@@ -2041,24 +1987,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78222080"/>
-        <c:axId val="78223616"/>
+        <c:axId val="70204800"/>
+        <c:axId val="71574656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78222080"/>
+        <c:axId val="70204800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78223616"/>
+        <c:crossAx val="71574656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78223616"/>
+        <c:axId val="71574656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,15 +2030,11 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78222080"/>
+        <c:crossAx val="70204800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:txPr>
@@ -2120,70 +2062,15 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$D$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimiert</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$37:$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$D$37:$D$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.6362849092955134</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8026500217174262</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>57.8021985644246</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.774797761769622</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>DSP!$E$36</c:f>
@@ -2237,24 +2124,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78219904"/>
-        <c:axId val="78225792"/>
+        <c:axId val="71603712"/>
+        <c:axId val="71605248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78219904"/>
+        <c:axId val="71603712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78225792"/>
+        <c:crossAx val="71605248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78225792"/>
+        <c:axId val="71605248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,17 +2163,15 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78219904"/>
+        <c:crossAx val="71603712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:txPr>
@@ -2431,24 +2316,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78311808"/>
-        <c:axId val="78313344"/>
+        <c:axId val="71654784"/>
+        <c:axId val="71668864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78311808"/>
+        <c:axId val="71654784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78313344"/>
+        <c:crossAx val="71668864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78313344"/>
+        <c:axId val="71668864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2471,16 +2356,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78311808"/>
+        <c:crossAx val="71654784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4710,7 +4597,7 @@
       <sheetName val="DSP MCL4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="9">
           <cell r="B9">
@@ -6150,8 +6037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7009,16 +6896,16 @@
         <v>69.47399999999999</v>
       </c>
       <c r="D45">
-        <f>B45/$B$50</f>
-        <v>683.55029585798809</v>
+        <f>1000/B45/$B$50</f>
+        <v>51.221950859709224</v>
       </c>
       <c r="E45">
-        <f>C45/$B$51</f>
-        <v>189.30245231607626</v>
+        <f>1000/C45/$B$51</f>
+        <v>39.220365033350255</v>
       </c>
       <c r="F45">
         <f>D45/E45</f>
-        <v>3.6108898088476504</v>
+        <v>1.3060039297480699</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7034,16 +6921,16 @@
         <v>352.04300000000001</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:D48" si="7">B46/$B$50</f>
-        <v>3986.8047337278103</v>
+        <f t="shared" ref="D46:D48" si="7">1000/B46/$B$50</f>
+        <v>8.7821656697591308</v>
       </c>
       <c r="E46">
-        <f t="shared" ref="E46:E48" si="8">C46/$B$51</f>
-        <v>959.24523160762942</v>
+        <f t="shared" ref="E46:E48" si="8">1000/C46/$B$51</f>
+        <v>7.7399512000720811</v>
       </c>
       <c r="F46">
         <f t="shared" ref="F46:F48" si="9">D46/E46</f>
-        <v>4.156189264601502</v>
+        <v>1.134653881238598</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7060,15 +6947,15 @@
       </c>
       <c r="D47">
         <f t="shared" si="7"/>
-        <v>408.75739644970417</v>
+        <v>85.656626567944528</v>
       </c>
       <c r="E47">
         <f t="shared" si="8"/>
-        <v>60.929155313351501</v>
+        <v>121.85482046093536</v>
       </c>
       <c r="F47">
-        <f>D47/E47</f>
-        <v>6.7087323687241813</v>
+        <f>E47/D47</f>
+        <v>1.4225965385675994</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7085,15 +6972,15 @@
       </c>
       <c r="D48">
         <f t="shared" si="7"/>
-        <v>555.20710059171597</v>
+        <v>63.062557426341357</v>
       </c>
       <c r="E48">
         <f t="shared" si="8"/>
-        <v>216.76294277929154</v>
+        <v>34.251755333957355</v>
       </c>
       <c r="F48">
         <f t="shared" si="9"/>
-        <v>2.561356168508143</v>
+        <v>1.8411481925955728</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -7184,7 +7071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>

--- a/Results/Results2.xlsx
+++ b/Results/Results2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="21315" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="21315" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="ARM" sheetId="1" r:id="rId1"/>
@@ -351,24 +351,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50326528"/>
-        <c:axId val="50373376"/>
+        <c:axId val="73389952"/>
+        <c:axId val="73391488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50326528"/>
+        <c:axId val="73389952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50373376"/>
+        <c:crossAx val="73391488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50373376"/>
+        <c:axId val="73391488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -391,18 +391,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50326528"/>
+        <c:crossAx val="73389952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -548,24 +546,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="70256128"/>
-        <c:axId val="70257664"/>
+        <c:axId val="80512896"/>
+        <c:axId val="80514432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70256128"/>
+        <c:axId val="80512896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70257664"/>
+        <c:crossAx val="80514432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70257664"/>
+        <c:axId val="80514432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +588,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70256128"/>
+        <c:crossAx val="80512896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -615,7 +613,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -742,24 +740,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="70294912"/>
-        <c:axId val="70300800"/>
+        <c:axId val="80539648"/>
+        <c:axId val="80541184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70294912"/>
+        <c:axId val="80539648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70300800"/>
+        <c:crossAx val="80541184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70300800"/>
+        <c:axId val="80541184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +783,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70294912"/>
+        <c:crossAx val="80539648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -811,7 +809,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -977,24 +975,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="49880064"/>
-        <c:axId val="49885952"/>
+        <c:axId val="73508736"/>
+        <c:axId val="73510272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49880064"/>
+        <c:axId val="73508736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49885952"/>
+        <c:crossAx val="73510272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49885952"/>
+        <c:axId val="73510272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1017,18 +1015,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49880064"/>
+        <c:crossAx val="73508736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1265,25 +1261,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="50133248"/>
-        <c:axId val="69607424"/>
+        <c:axId val="75011200"/>
+        <c:axId val="75012736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50133248"/>
+        <c:axId val="75011200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69607424"/>
+        <c:crossAx val="75012736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69607424"/>
+        <c:axId val="75012736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,7 +1306,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50133248"/>
+        <c:crossAx val="75011200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,24 +1459,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69644672"/>
-        <c:axId val="69646208"/>
+        <c:axId val="75033600"/>
+        <c:axId val="75059968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69644672"/>
+        <c:axId val="75033600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69646208"/>
+        <c:crossAx val="75059968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69646208"/>
+        <c:axId val="75059968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1507,7 +1503,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69644672"/>
+        <c:crossAx val="75033600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1661,24 +1657,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="49748224"/>
-        <c:axId val="49754112"/>
+        <c:axId val="80258176"/>
+        <c:axId val="80259712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49748224"/>
+        <c:axId val="80258176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49754112"/>
+        <c:crossAx val="80259712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49754112"/>
+        <c:axId val="80259712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,7 +1700,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49748224"/>
+        <c:crossAx val="80258176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1717,7 +1713,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1844,24 +1840,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="70190592"/>
-        <c:axId val="70192128"/>
+        <c:axId val="72503680"/>
+        <c:axId val="72505216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70190592"/>
+        <c:axId val="72503680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70192128"/>
+        <c:crossAx val="72505216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70192128"/>
+        <c:axId val="72505216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1888,7 +1884,479 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70190592"/>
+        <c:crossAx val="72503680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimiert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$C$37:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>69.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.551999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="80433152"/>
+        <c:axId val="80436224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80433152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80436224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80436224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80433152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimiert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$37:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$E$37:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39.220365033350255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7399512000720811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.85482046093536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.251755333957355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="80410880"/>
+        <c:axId val="80416768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80410880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80416768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80416768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energie-Effizienz in [MCL/J]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80410880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$45:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$B$45:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>115.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>673.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.080000000000013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DSP!$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hete. Sys.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DSP!$A$45:$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MCL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MCL2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MCL3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MCL4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DSP!$C$45:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>69.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.551999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="80478208"/>
+        <c:axId val="80479744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80478208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80479744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80479744"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80478208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1915,478 +2383,6 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$C$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimiert</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$37:$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$C$37:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>69.47399999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>352.04300000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.361000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.551999999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="70204800"/>
-        <c:axId val="71574656"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="70204800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71574656"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="71574656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70204800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$E$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimiert</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$37:$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$E$37:$E$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>39.220365033350255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7399512000720811</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121.85482046093536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.251755333957355</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="71603712"/>
-        <c:axId val="71605248"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="71603712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71605248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="71605248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Energie-Effizienz in [MCL/J]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71603712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$B$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$45:$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$B$45:$B$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>115.52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>673.77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>69.080000000000013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93.83</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>DSP!$C$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>hete. Sys.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>DSP!$A$45:$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MCL1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MCL2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MCL3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MCL4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>DSP!$C$45:$C$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>69.47399999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>352.04300000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.361000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.551999999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="71654784"/>
-        <c:axId val="71668864"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="71654784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71668864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="71668864"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71654784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4597,7 +4593,7 @@
       <sheetName val="DSP MCL4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="9">
           <cell r="B9">
@@ -5054,7 +5050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -7071,7 +7067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
